--- a/static/excel/recommend_table.xlsx
+++ b/static/excel/recommend_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tubasawatanabe/AITOTO/AITOTO_Flask/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubasawatanabe/AITOTO/AITOTO_Flask/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B6817-1BD0-574C-8B0A-6076244C622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097566B-F7D2-4847-A0B9-DD9823F55106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2660" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
   <si>
     <t>商品名</t>
   </si>
@@ -142,6 +142,9 @@
     <t>https://www.chanel.com/jp/fragrance/les-eaux-de-chanel/c/7x1x6/</t>
   </si>
   <si>
+    <t>JO MALONE</t>
+  </si>
+  <si>
     <t>インスタクス</t>
   </si>
   <si>
@@ -232,7 +235,7 @@
     <t>コントローラ</t>
   </si>
   <si>
-    <t>hori コントローラー - 検索 画像 (bing.com)</t>
+    <t>https://hori.jp/image/2017/10/HORIPAD_catch-1.jpg</t>
   </si>
   <si>
     <t>株式会社 HORI | ワイヤレスホリパッド TURBO for Nintendo Switch™</t>
@@ -244,7 +247,7 @@
     <t>マウス</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=%2bHXCTkc6&amp;id=2B54339B24E2D40FE25C85903251717A59050F58&amp;thid=OIP.-HXCTkc6VNgs_MVqc3dONAHaGX&amp;mediaurl=https%3a%2f%2fresource.logitech.com%2fw_900%2ch_900%2cc_limit%2cq_auto%2cf_auto%2cdpr_1.0%2fd_transparent.gif%2fcontent%2fdam%2flogitech%2fja%2fproducts%2fmice%2fm720%2fgallery%2fm720-gallery-1a.png%3fv%3d1&amp;exph=773&amp;expw=900&amp;q=M720r+TRIATHLON&amp;simid=608050168689003215&amp;FORM=IRPRST&amp;ck=8DA63F7608394DA06C0158259E8BFAD0&amp;selectedIndex=0&amp;itb=1&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://resource.logitech.com/w_900,h_900,c_limit,q_auto,f_auto,dpr_1.0/d_transparent.gif/content/dam/logitech/ja/products/mice/m720/gallery/m720-gallery-1a.png?v=1</t>
   </si>
   <si>
     <t>Logicool M720r Triathlon Bluetooth付きワイヤレスマウス</t>
@@ -256,7 +259,7 @@
     <t>ヘッドホン</t>
   </si>
   <si>
-    <t>Soundcore Space One - 検索 画像 (bing.com)</t>
+    <t>https://th.bing.com/th/id/OIP.tJ4gjfM67vBFTahZ9dP0CAAAAA?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>https://www.ankerjapan.com/products/a3035?variant=43261298639009</t>
@@ -268,6 +271,9 @@
     <t>ワイヤレスイヤホン</t>
   </si>
   <si>
+    <t>https://th.bing.com/th/id/OIP.wFA6tXLJTVoL3Yyk5YV02AAAAA?rs=1&amp;pid=ImgDetMain</t>
+  </si>
+  <si>
     <t>https://pur.store.sony.jp/headphone/products/WF-C500/WF-C500_purchase/</t>
   </si>
   <si>
@@ -277,7 +283,7 @@
     <t>リュック</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=oa4sUrkF&amp;id=13173D42E74BBC5EB09ED5A63109B9868E28EA52&amp;thid=OIP.oa4sUrkFFEbyVlvyz0ooRwHaHa&amp;mediaurl=https%3a%2f%2fec.coleman.co.jp%2fclient_info%2fCOLEMANJAPAN%2fitemimage%2f2000038970%2f2000038970.jpg&amp;exph=1500&amp;expw=1500&amp;q=%e3%82%a6%e3%82%a9%e3%83%bc%e3%82%ab%e3%83%bc+33+(%e3%83%96%e3%83%a9%e3%83%83%e3%82%af)&amp;simid=608032022469625567&amp;FORM=IRPRST&amp;ck=779E368AD1C3B408D3B6E9F901989D28&amp;selectedIndex=9&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://th.bing.com/th/id/OIP.oa4sUrkFFEbyVlvyz0ooRwHaHa?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>https://ec.coleman.co.jp/category/258/2000038970.html</t>
@@ -289,7 +295,7 @@
     <t>スウェット</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=OXmLMbhU&amp;id=BF71D47833D707FAF398D8A4CCAA1FB14CC54E20&amp;thid=OIP.OXmLMbhUO8FRzPfScqmbiQHaHa&amp;mediaurl=https%3a%2f%2fwww.logos.ne.jp%2fstorage%2fec%2fproducts%2f36000803211-36000803615%2f36000803211-36000803615_m1.jpg&amp;exph=1200&amp;expw=1200&amp;q=logos+%e3%83%9e%e3%82%a4%e3%83%86%e3%82%a3%e3%83%bc%e3%82%b9%e3%82%a6%e3%82%a7%e3%83%83%e3%83%88%ef%bc%88Family%ef%bc%89&amp;simid=608001485272410730&amp;FORM=IRPRST&amp;ck=1DE2DCC3B8B15AF75EA59124E0F5C699&amp;selectedIndex=8&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://th.bing.com/th/id/OIP.OXmLMbhUO8FRzPfScqmbiQHaHa?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>https://www.logos.ne.jp/products/info/11101</t>
@@ -301,7 +307,7 @@
     <t>スモールウォレット</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=3W5JX5QR&amp;id=C85523AC0C1902E47E813F1304EDC80EF4BE46D4&amp;thid=OIP.3W5JX5QRWkuyz8OLjxbgnQHaHa&amp;mediaurl=https%3a%2f%2fshop.r10s.jp%2ftakuminowaza%2fcabinet%2fmobile1%2fgs-s-wallet21ss1.jpg&amp;exph=720&amp;expw=720&amp;q=%e3%82%ac%e3%82%bc%e3%83%83%e3%83%88%e3%82%b3%e3%83%bc%e3%83%89+%e3%83%95%e3%82%a1%e3%82%b9%e3%83%8a%e3%83%bc%e3%82%b9%e3%83%a2%e3%83%bc%e3%83%ab%e3%82%a6%e3%82%a9%e3%83%ac%e3%83%83%e3%83%88&amp;simid=608010006476126138&amp;FORM=IRPRST&amp;ck=165EA5E373A91ADD49E0DF92F0AEDDF8&amp;selectedIndex=2&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://shop.r10s.jp/takuminowaza/cabinet/mobile1/gs-s-wallet21ss1.jpg</t>
   </si>
   <si>
     <t>https://tsuchiya-kaban.jp/products/gs-fastener-small-wallet</t>
@@ -313,7 +319,7 @@
     <t>キーケース</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=z0FUW5S6&amp;id=332DC844EA97F4722012138D47F86BD40EFED414&amp;thid=OIP.z0FUW5S6nQlAZ3A_E_qdDAHaE-&amp;mediaurl=https%3a%2f%2fds393qgzrxwzn.cloudfront.net%2fresize%2fm720x480%2fcat1%2fimg%2fimages%2f0%2fA4U9rR7fX7.jpg&amp;exph=480&amp;expw=715&amp;q=%e3%82%a4%e3%83%ab%e3%83%93%e3%82%be%e3%83%b3%e3%83%86+%e3%82%ad%e3%83%bc%e3%82%b1%e3%83%bc%e3%82%b9&amp;simid=608018458973980657&amp;FORM=IRPRST&amp;ck=1FD9AD806881BAD627647C6DE8E0DA40&amp;selectedIndex=41&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://ds393qgzrxwzn.cloudfront.net/resize/m720x480/cat1/img/images/0/A4U9rR7fX7.jpg</t>
   </si>
   <si>
     <t>https://www.ilbisonte.jp/shop/onlinestore/item/view/shop_product_id/162</t>
@@ -325,7 +331,7 @@
     <t>地ビール詰め合わせ</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=hbfJduE%2f&amp;id=6F90F108E96D41D37E8FF6DB0091D9280B09FDF3&amp;thid=OIP.hbfJduE_A5BqX5DBEpFFTgHaHa&amp;mediaurl=https%3a%2f%2fshop.r10s.jp%2fganso-jibeer%2fcabinet%2fimgrc0070822703.jpg&amp;exph=605&amp;expw=605&amp;q=%e3%82%af%e3%83%a9%e3%83%95%e3%83%88%e3%83%93%e3%83%bc%e3%83%ab%e3%83%bb%e5%9c%b0%e3%83%93%e3%83%bc%e3%83%ab%e3%80%80%e3%82%ae%e3%83%95%e3%83%88%e3%82%bb%e3%83%83%e3%83%88&amp;simid=608050589630874689&amp;FORM=IRPRST&amp;ck=ADAC8FD7EC6D5C355937FD487386CBB3&amp;selectedIndex=20&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://shop.r10s.jp/ganso-jibeer/cabinet/imgrc0070822703.jpg</t>
   </si>
   <si>
     <t>【楽天市場】金賞地ビール（クラフトビール）飲み比べセット 4種12本 詰め合わせギフトセット＜ご当地ビール、黒ビール、ペールエール＞サンクトガーレン 酒ギフト【本州送料無料｜あす楽】出産内祝い・結婚内祝い・退職祝い・還暦祝い のし名入れ、誕生日プレゼント・バレンタインギフト：サンクトガーレン (rakuten.co.jp)</t>
@@ -337,7 +343,7 @@
     <t>赤ワインセット</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=Q%2fEdR5ck&amp;id=6165A1C0725A5F3208E82D5408B14E64FE72B90F&amp;thid=OIP.Q_EdR5ckuQXTQxdf2JiPtwHaHa&amp;mediaurl=https%3a%2f%2ffiradis.net%2fclient_info%2fFIRADIS%2fitemimage%2f1117%2f1117sp.jpg&amp;exph=700&amp;expw=700&amp;q=%e5%85%a8%e3%81%a6%e3%81%8a%e5%ae%a2%e3%81%95%e3%81%be%e3%83%ac%e3%83%93%e3%83%a5%e3%83%bc4%e7%82%b9%e4%bb%a5%e4%b8%8a%e3%81%ae%e9%ab%98%e8%a9%95%e4%be%a1%ef%bc%81%e7%b5%b6%e5%af%be%e3%83%8f%e3%82%ba%e3%81%95%e3%81%aa%e3%81%84%e5%ae%89%e5%bf%83%e3%81%ae%e8%b5%a4%e3%83%af%e3%82%a4%e3%83%b35%e6%9c%ac%e3%82%bb%e3%83%83%e3%83%88(750ml%c3%975%e6%9c%ac)&amp;simid=608017071703199372&amp;FORM=IRPRST&amp;ck=E2C469CFFCE37C694080E782A4B402E7&amp;selectedIndex=3&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://firadis.net/client_info/FIRADIS/itemimage/1117/1117sp.jpg</t>
   </si>
   <si>
     <t>https://firadis.net/item/1116.html</t>
@@ -349,7 +355,7 @@
     <t>レザーバック</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=60wafSaS&amp;id=173356CF11383F341F7C56ADB745B928D914C682&amp;thid=OIP.60wafSaSVw_Iade751G3IAHaHa&amp;mediaurl=https%3a%2f%2fcdn.shopify.com%2fs%2ffiles%2f1%2f0073%2f9118%2f2899%2fproducts%2fBBL-1_529c5cd4-ac92-4c73-a09b-1b3572f08697_800x.jpg%3fv%3d1636187252&amp;exph=800&amp;expw=800&amp;q=%e3%83%93%e3%82%b8%e3%83%8d%e3%82%b9%e3%83%90%e3%83%83%e3%82%b0+%e3%83%96%e3%83%a9%e3%83%83%e3%82%af%e3%80%80hushtug&amp;simid=608023505566453341&amp;FORM=IRPRST&amp;ck=86223242856FC9BF97F87FD1E26E8EA8&amp;selectedIndex=6&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://th.bing.com/th/id/OIP.60wafSaSVw_Iade751G3IAHaHa?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>https://shop.hushtug.net/products/bag-business-black</t>
@@ -361,7 +367,7 @@
     <t>スピーカー</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=23aTcGVg&amp;id=2FC8BD1A6D6B0696D92ABD4734B17AAD900D6797&amp;thid=OIP.23aTcGVgTpCVv52svPt3HQHaF6&amp;mediaurl=https%3a%2f%2feurope.yamaha.com%2fen%2ffiles%2fAD66D3498EF74D2797DC93A0BD15E353_12073_1457x1163_c98e60a0c88f1cb394f82371a43906f6.jpg&amp;exph=1163&amp;expw=1457&amp;q=yamaha+NS-B500+%e3%82%b9%e3%83%94%e3%83%bc%e3%82%ab%e3%83%bc&amp;simid=608007459556257100&amp;FORM=IRPRST&amp;ck=0F396DFC655E196D5AB39A714FCDC631&amp;selectedIndex=1&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://th.bing.com/th/id/OIP.23aTcGVgTpCVv52svPt3HQHaF6?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>https://jp.yamaha.com/products/audio_visual/speaker_systems/ns-b500/index.html</t>
@@ -373,7 +379,7 @@
     <t>ウイスキー</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=lQrUiPwA&amp;id=99401AD32162879C56E3CB3C6724C0851AEE6A4C&amp;thid=OIP.lQrUiPwAiajduT-m6QKknwHaHa&amp;mediaurl=https%3a%2f%2fimgcp.aacdn.jp%2fimg-a%2f1200%2fauto%2fcontents-commerce%2fform%2farticle%2f2021%2f10%2f25%2f61763847adb41.jpg&amp;exph=1200&amp;expw=1200&amp;q=Glenmorangie(%e3%82%b0%e3%83%ac%e3%83%b3%e3%83%a2%e3%83%bc%e3%83%ac%e3%83%b3%e3%82%b8%e3%82%a3)+18%e5%b9%b4+%5b%e3%83%a2%e3%83%ab%e3%83%88+%e3%82%a6%e3%82%a4%e3%82%b9%e3%82%ad%e3%83%bc+%e3%82%a4%e3%82%ae%e3%83%aa%e3%82%b9+700ml+%5d&amp;simid=608022294392106738&amp;FORM=IRPRST&amp;ck=EC10C2B0E0908CA03F07A7AACF554599&amp;selectedIndex=2&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://th.bing.com/th/id/OIP.lQrUiPwAiajduT-m6QKknwHaHa?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>https://www.amazon.co.jp/dp/B003ZIOR9Y?tag=smlg-134437-22&amp;linkCode=osi&amp;th=1&amp;psc=1</t>
@@ -385,7 +391,7 @@
     <t>旅行カタログギフト</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=ZjRrmjfg&amp;id=53973C0FA504FCB1564D0126F9914E54E373CA0F&amp;thid=OIP.ZjRrmjfgA_2k6wrVcIwH5wAAAA&amp;mediaurl=https%3a%2f%2fgift-shop.jp%2fcatalog_gift%2fhm_jtb%2fhm_jtb_top.jpg&amp;exph=354&amp;expw=354&amp;q=%e3%80%8eJTB%e3%81%82%e3%82%8a%e3%81%8c%e3%81%a8%e3%81%86%e3%83%97%e3%83%ac%e3%83%9f%e3%82%a2%e3%83%a0%e3%80%8f&amp;simid=607994660554896887&amp;FORM=IRPRST&amp;ck=C57EEC7B1CFE183C9EDAB493BFB4279E&amp;selectedIndex=0&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://gift-shop.jp/catalog_gift/hm_jtb/hm_jtb_top.jpg</t>
   </si>
   <si>
     <t>https://www.harmonick.co.jp/catalog-gift/arigato-premium/?msclkid=baa783100233147f2792e6daf492f748</t>
@@ -397,7 +403,7 @@
     <t>カミソリ</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=TkWnXKwI&amp;id=9B4F465CE00437C1AC8CA079E827B93BB8F0FBD4&amp;thid=OIP.TkWnXKwIew34z5BTPINozAHaHa&amp;mediaurl=https%3a%2f%2fwww.kamisoriclub.co.jp%2fcdn%2fshop%2fproducts%2fRA352T_1_800x.jpg%3fv%3d1655209894&amp;exph=800&amp;expw=800&amp;q=%e3%82%af%e3%83%a9%e3%82%b7%e3%82%ab%e3%83%ab%e3%81%aa2%e6%9e%9a%e5%88%83%2b%e6%9c%80%e6%96%b05%e6%9e%9a%e5%88%83%e3%81%a9%e3%81%a1%e3%82%89%e3%82%82%e4%bd%bf%e3%81%88%e3%82%8b%2f+%e3%82%ab%e3%83%9f%e3%82%bd%e3%83%aa%e5%80%b6%e6%a5%bd%e9%83%a8%e9%99%90%e5%ae%9a+%e3%82%a4%e3%82%bf%e3%83%aa%e3%82%a2%e8%a3%bd2IN1%e3%82%ab%e3%83%9f%e3%82%bd%e3%83%aa+RA352T+OLD+FLORENCE+OTTONE+INVECCHIATO+%e5%90%8d%e5%85%a5%e3%82%8c%e3%82%b5%e3%83%bc%e3%83%93%e3%82%b9%e4%bb%98&amp;simid=608053042047363966&amp;FORM=IRPRST&amp;ck=56D0C3122C033DE26ADCC5773229EED4&amp;selectedIndex=0&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://th.bing.com/th/id/OIP.TkWnXKwIew34z5BTPINozAHaHa?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>クラシカルな2枚刃+最新5枚刃どちらも使える/ カミソリ倶楽部限定 イタリア製2in1カミソリ RA352T OLD FLORENCE OT (kamisoriclub.co.jp)</t>
@@ -409,7 +415,7 @@
     <t>プラモデル</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=OPvqYjGi&amp;id=9EADC8E55C33ADCFDA8259A714E985A5DD920545&amp;thid=OIP.OPvqYjGiy4WlxcQUtR1j6AHaHa&amp;mediaurl=https%3A%2F%2Fcdn.snsimg.carview.co.jp%2Fminkara%2Fblog%2F000%2F026%2F653%2F259%2F26653259%2Fp1.jpg%3Fct%3De68730ecd458&amp;exph=800&amp;expw=800&amp;q=CB750FOUR+1%2f4+SCALE+%3a+DETAIL&amp;simid=608044409165595922&amp;form=IRPRST&amp;ck=B452C31EF011BFAC8B2280DEEED23184&amp;selectedindex=15&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0&amp;vt=0&amp;pivotparams=insightsToken%3Dccid_HAKCLIwT*cp_B17B4DD36981C615B4A9A0C2AB9B5CCA*mid_FAA8B7C959874CCD42DD576DD6564FF78E777F13*simid_608012042237189823*thid_OIP.HAKCLIwTyMptqLejS8qJXAHaFj&amp;sim=11&amp;iss=VSI&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://th.bing.com/th/id/OIP.OPvqYjGiy4WlxcQUtR1j6AHaHa?rs=1&amp;pid=ImgDetMain</t>
   </si>
   <si>
     <t>https://deagostini.jp/cb2/</t>
@@ -421,7 +427,7 @@
     <t>万年筆</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=y6i6PjCD&amp;id=3913E25051F4775F526DAEAF11ADAA58E590B1E2&amp;thid=OIP.y6i6PjCDp87PlKc29G0ZAwHaHa&amp;mediaurl=https%3a%2f%2fstatic.wixstatic.com%2fmedia%2fc9a7ac_704eb04757e748348bd3313ecca68d72%7emv2.jpg%2fv1%2ffill%2fw_980%2ch_980%2cal_c%2cq_85%2cusm_0.66_1.00_0.01%2cenc_auto%2fc9a7ac_704eb04757e748348bd3313ecca68d72%7emv2.jpg&amp;exph=980&amp;expw=980&amp;q=%e3%82%bd%e3%83%8d%e3%83%83%e3%83%88+%e3%83%96%e3%83%a9%e3%83%83%e3%82%af%26%e3%82%b5%e3%83%b3%e3%83%89%e3%83%96%e3%83%a9%e3%82%b9%e3%83%88CT+%e4%b8%87%e5%b9%b4%e7%ad%86&amp;simid=608016058079850666&amp;FORM=IRPRST&amp;ck=2BB6D5D9521C47734AE75C937592ABB6&amp;selectedIndex=0&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
+    <t>https://static.wixstatic.com/media/c9a7ac_704eb04757e748348bd3313ecca68d72~mv2.jpg/v1/fill/w_980,h_980,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/c9a7ac_704eb04757e748348bd3313ecca68d72~mv2.jpg</t>
   </si>
   <si>
     <t>https://www.parkertime.jp/SHOP/2146869.html</t>
@@ -472,8 +478,10 @@
     <t>~1千円:0, ~３千円: 1, ~５千円:2,~１万円:3,~２万円:4, ~３万円:5, ３万円~:6</t>
   </si>
   <si>
-    <t>https://www.bing.com/images/search?view=detailV2&amp;ccid=wFA6tXLJ&amp;id=5BA5A82179EBDA9D858B20809E106FC140362550&amp;thid=OIP.wFA6tXLJTVoL3Yyk5YV02AAAAA&amp;mediaurl=https%3a%2f%2fimg.satouchi.com%2fimg-blog%2faudio%2fheadphone%2fwf-c500%2fwf-c500_review009.jpg&amp;exph=316&amp;expw=474&amp;q=%e3%83%af%e3%82%a4%e3%83%a4%e3%83%ac%e3%82%b9%e3%82%b9%e3%83%86%e3%83%ac%e3%82%aa%e3%83%98%e3%83%83%e3%83%89%e3%82%bb%e3%83%83%e3%83%88++WF-C500&amp;simid=607993419332921015&amp;FORM=IRPRST&amp;ck=B96CB843B3C9A798C8DDF481B3BBBDEB&amp;selectedIndex=17&amp;itb=0&amp;ajaxhist=0&amp;ajaxserp=0</t>
-    <phoneticPr fontId="17"/>
+    <t>https://cdn-images.buyma.com/resizer/item/210207/0064558626/325755007/org.jpg?w=1500&amp;h=1500</t>
+  </si>
+  <si>
+    <t>https://www.jomalone.jp/colognes</t>
   </si>
 </sst>
 </file>
@@ -549,7 +557,8 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -560,16 +569,15 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF467886"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF467886"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
@@ -715,7 +723,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H7" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H36" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -933,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H999"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1164,13 +1172,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1181,16 +1189,16 @@
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1201,16 +1209,16 @@
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1221,76 +1229,76 @@
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
-        <v>4</v>
+      <c r="F16" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1301,76 +1309,76 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
+      <c r="E19" s="4">
+        <v>1</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -1380,17 +1388,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -1400,39 +1408,39 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="D24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="E24" s="7">
         <v>0</v>
       </c>
       <c r="F24" s="7">
@@ -1441,118 +1449,118 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="D25" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="D26" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
+      <c r="F27" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="D28" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
+      <c r="F28" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="D29" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="E29" s="7">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="D30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <v>0</v>
       </c>
       <c r="F30" s="7">
@@ -1561,105 +1569,124 @@
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D31" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="D33" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="D34" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1"/>
     <row r="37" spans="1:6" ht="18.75" customHeight="1"/>
     <row r="38" spans="1:6" ht="18.75" customHeight="1"/>
     <row r="39" spans="1:6" ht="18.75" customHeight="1"/>
@@ -2623,6 +2650,7 @@
     <row r="997" ht="18.75" customHeight="1"/>
     <row r="998" ht="18.75" customHeight="1"/>
     <row r="999" ht="18.75" customHeight="1"/>
+    <row r="1000" ht="18.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="17"/>
   <hyperlinks>
@@ -2644,56 +2672,56 @@
     <hyperlink ref="D9" r:id="rId16" location="%E3%82%B0%E3%83%AD%E3%82%B9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D19" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C19" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D36" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2721,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1">
@@ -2729,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1">
@@ -2737,15 +2765,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1">
@@ -2753,7 +2781,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1"/>

--- a/static/excel/recommend_table.xlsx
+++ b/static/excel/recommend_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubasawatanabe/AITOTO/AITOTO_Flask/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097566B-F7D2-4847-A0B9-DD9823F55106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9B471-B8E3-5C49-B17D-24C84161A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>コスメ</t>
-  </si>
-  <si>
-    <t>https://www.canmake.com/upload/product/image/3SEL202301_.jpg</t>
   </si>
   <si>
     <t>https://www.canmake.com/</t>
@@ -483,12 +480,16 @@
   <si>
     <t>https://www.jomalone.jp/colognes</t>
   </si>
+  <si>
+    <t>https://www.canmake.com/upload/product/image/01-05.jpg</t>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -604,6 +605,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -622,10 +630,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -674,8 +683,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -944,7 +957,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -982,11 +995,11 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -999,16 +1012,16 @@
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1021,16 +1034,16 @@
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1043,16 +1056,16 @@
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1065,16 +1078,16 @@
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1087,16 +1100,16 @@
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1109,16 +1122,16 @@
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1129,16 +1142,16 @@
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1149,16 +1162,16 @@
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1169,16 +1182,16 @@
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
         <v>141</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1189,16 +1202,16 @@
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1209,16 +1222,16 @@
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1229,16 +1242,16 @@
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1249,16 +1262,16 @@
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1269,16 +1282,16 @@
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1289,16 +1302,16 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1309,16 +1322,16 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1329,16 +1342,16 @@
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1349,16 +1362,16 @@
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -1369,16 +1382,16 @@
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -1389,16 +1402,16 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -1409,16 +1422,16 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -1429,16 +1442,16 @@
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -1449,16 +1462,16 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -1469,16 +1482,16 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -1489,16 +1502,16 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -1509,16 +1522,16 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -1529,16 +1542,16 @@
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>
@@ -1549,16 +1562,16 @@
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -1569,16 +1582,16 @@
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -1589,16 +1602,16 @@
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
@@ -1609,16 +1622,16 @@
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -1629,16 +1642,16 @@
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -1649,16 +1662,16 @@
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -1669,16 +1682,16 @@
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
@@ -2749,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1">
@@ -2757,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1">
@@ -2765,15 +2778,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1">
@@ -2781,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1"/>

--- a/static/excel/recommend_table.xlsx
+++ b/static/excel/recommend_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubasawatanabe/AITOTO/AITOTO_Flask/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9B471-B8E3-5C49-B17D-24C84161A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A208579-36DC-DC4E-A352-F7F7A8389E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="24280" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
   <si>
     <t>商品名</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
     <t>リンク</t>
   </si>
   <si>
-    <t>性別</t>
-  </si>
-  <si>
     <t>値段</t>
   </si>
   <si>
@@ -85,18 +79,12 @@
     <t>https://m.media-amazon.com/images/I/61hNKfDuS7L._AC_SX679_.jpg</t>
   </si>
   <si>
-    <t>Amazon.co.jp : フィルムカメラ</t>
-  </si>
-  <si>
     <t>スワロフスキー</t>
   </si>
   <si>
     <t>https://asset.swarovski.com/images/$size_1450/t_swa103/b_rgb:ffffff,c_scale,dpr_1.0,f_auto,w_675/5510698_png/attract-%E3%83%8D%E3%83%83%E3%82%AF%E3%83%AC%E3%82%B9--%E3%82%B9%E3%82%AF%E3%82%A8%E3%82%A2%E3%83%BB%E3%82%AB%E3%83%83%E3%83%88--%E3%83%9B%E3%83%AF%E3%82%A4%E3%83%88--%E3%83%AD%E3%83%BC%E3%82%BA%E3%82%B4%E3%83%BC%E3%83%AB%E3%83%89%E3%83%88%E3%83%BC%E3%83%B3%E3%83%BB%E3%83%97%E3%83%AC%E3%83%BC%E3%83%86%E3%82%A3%E3%83%B3%E3%82%B0-swarovski-5510698.png</t>
   </si>
   <si>
-    <t>スワロフスキー公式オンラインストア｜ジュエリー＆アクセサリーなど by スワロフスキー (swarovski.com)</t>
-  </si>
-  <si>
     <t>M・A・C</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>https://sdcdn.io/mac/jp/mac_sku_M2LP05_1x1_0.png?width=1080&amp;height=1080</t>
   </si>
   <si>
-    <t>Lip Makeup | Lipstick, Lipgloss &amp; Lip Primer | MAC Cosmetics</t>
-  </si>
-  <si>
     <t>イブ・サンローラン</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>https://www.dior.com/dw/image/v2/BGXS_PRD/on/demandware.static/-/Sites-master_dior/default/dw0f4c728a/Y0356009/Y0356009_C035500434_E01_GHC.jpg?sw=800</t>
   </si>
   <si>
-    <t>【DIOR】 リップ【新作・全ての製品】</t>
-  </si>
-  <si>
     <t>シャネル</t>
   </si>
   <si>
@@ -163,36 +145,24 @@
     <t>https://cdn.michaelkors.jp/upload/save_image/product/list/30F2G7CM1T-2171_2_list.jpg</t>
   </si>
   <si>
-    <t>オンライン限定セール | おすすめアイテム | マイケル・コース(MICHAEL KORS)公式オンラインストア</t>
-  </si>
-  <si>
     <t>サマンサタバサ</t>
   </si>
   <si>
     <t>https://www.samantha.co.jp/img/goods/L/00032310130421_11_mn_1.jpg</t>
   </si>
   <si>
-    <t>サマンサタバサ公式オンラインショップ (samantha.co.jp)</t>
-  </si>
-  <si>
     <t>ケイトスペード</t>
   </si>
   <si>
     <t>https://katespade.scene7.com/is/image/KateSpade/K6553_200?$desktopProduct$</t>
   </si>
   <si>
-    <t>バッグ | ケイト・スペード ニューヨーク【公式オンラインショップ】 (katespade.jp)</t>
-  </si>
-  <si>
     <t>コーチ</t>
   </si>
   <si>
     <t>https://s7d2.scene7.com/is/image/Coach/cp150_b4ha_a0</t>
   </si>
   <si>
-    <t>【コーチ公式】CoachのLucky財布＆革小物</t>
-  </si>
-  <si>
     <t>ジル　スチュアート</t>
   </si>
   <si>
@@ -202,9 +172,6 @@
     <t>https://bagmania.fs-storage.jp/fs2cabinet/JSL/JSLW3CE1/JSLW3CE1-m-01-dl.jpg</t>
   </si>
   <si>
-    <t>JILL STUART(ジル スチュアート) 財布・小物の公式通販 THE BAGMANIA-バッグマニア-</t>
-  </si>
-  <si>
     <t>ウェッジウッド</t>
   </si>
   <si>
@@ -214,18 +181,12 @@
     <t>https://www.wedgwood.jp/html/upload/save_image/0122110242_65adccc23e566.jpg</t>
   </si>
   <si>
-    <t>TOPページ|WEDGWOOD公式オンラインショップ</t>
-  </si>
-  <si>
     <t>ナルミ</t>
   </si>
   <si>
     <t>https://www.e-narumi.com/img/goods/L/52458-23373.jpg</t>
   </si>
   <si>
-    <t>カップ＆ソーサー・マグカップ (e-narumi.com)</t>
-  </si>
-  <si>
     <t>HORI</t>
   </si>
   <si>
@@ -235,9 +196,6 @@
     <t>https://hori.jp/image/2017/10/HORIPAD_catch-1.jpg</t>
   </si>
   <si>
-    <t>株式会社 HORI | ワイヤレスホリパッド TURBO for Nintendo Switch™</t>
-  </si>
-  <si>
     <t>logicool</t>
   </si>
   <si>
@@ -247,9 +205,6 @@
     <t>https://resource.logitech.com/w_900,h_900,c_limit,q_auto,f_auto,dpr_1.0/d_transparent.gif/content/dam/logitech/ja/products/mice/m720/gallery/m720-gallery-1a.png?v=1</t>
   </si>
   <si>
-    <t>Logicool M720r Triathlon Bluetooth付きワイヤレスマウス</t>
-  </si>
-  <si>
     <t>Anker</t>
   </si>
   <si>
@@ -331,9 +286,6 @@
     <t>https://shop.r10s.jp/ganso-jibeer/cabinet/imgrc0070822703.jpg</t>
   </si>
   <si>
-    <t>【楽天市場】金賞地ビール（クラフトビール）飲み比べセット 4種12本 詰め合わせギフトセット＜ご当地ビール、黒ビール、ペールエール＞サンクトガーレン 酒ギフト【本州送料無料｜あす楽】出産内祝い・結婚内祝い・退職祝い・還暦祝い のし名入れ、誕生日プレゼント・バレンタインギフト：サンクトガーレン (rakuten.co.jp)</t>
-  </si>
-  <si>
     <t>Firadia WINE CLUB</t>
   </si>
   <si>
@@ -401,9 +353,6 @@
   </si>
   <si>
     <t>https://th.bing.com/th/id/OIP.TkWnXKwIew34z5BTPINozAHaHa?rs=1&amp;pid=ImgDetMain</t>
-  </si>
-  <si>
-    <t>クラシカルな2枚刃+最新5枚刃どちらも使える/ カミソリ倶楽部限定 イタリア製2in1カミソリ RA352T OLD FLORENCE OT (kamisoriclub.co.jp)</t>
   </si>
   <si>
     <t>Diagostini</t>
@@ -478,18 +427,151 @@
     <t>https://cdn-images.buyma.com/resizer/item/210207/0064558626/325755007/org.jpg?w=1500&amp;h=1500</t>
   </si>
   <si>
+    <t>https://www.canmake.com/upload/product/image/01-05.jpg</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.michaelkors.jp/products/online-special/?gclsrc=aw.ds&amp;&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=01.Brand_Single&amp;utm_content=&amp;utm_term=%E3%83%9E%E3%82%A4%E3%82%B1%E3%83%AB%20%E3%82%B3%E3%83%BC%E3%82%B9&amp;gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgQfOTPIPIDmRHQrrzpFDjEOYOt4a9GyQfd9vdtuWUp9lh-EtLliTx8aAjkjEALw_wcB</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/s?k=%E3%83%95%E3%82%A3%E3%83%AB%E3%83%A0%E3%82%AB%E3%83%A1%E3%83%A9&amp;i=electronics&amp;__mk_ja_JP=%E3%82%AB%E3%82%BF%E3%82%AB%E3%83%8A&amp;crid=2XI4RHKIBOSYI&amp;sprefix=%E3%83%95%E3%82%A3%E3%83%AB%E3%83%A0%E3%82%AB%E3%83%A1%E3%83%A9%2Celectronics%2C175&amp;ref=nb_sb_noss_1</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.swarovski.com/ja-JP/</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.maccosmetics.jp/lips</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://item.rakuten.co.jp/ganso-jibeer/kinshou-beer4-12/</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.kamisoriclub.co.jp/products/ra352-truck2gift</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.dior.com/ja_jp/beauty/%E3%83%A1%E3%82%A4%E3%82%AF%E3%82%A2%E3%83%83%E3%83%97/%E3%83%AA%E3%83%83%E3%83%97-1?gad_source=1&amp;gclid=Cj0KCQiAoKeuBhCoARIsAB4WxtdipZkOEx9zvZl9-ZCA3_MqQMtAcw3MPuDrVRwz_ulvQoit8tOQJbUaAgwdEALw_wcB#%E3%82%B0%E3%83%AD%E3%82%B9</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.samantha.co.jp/shop/c/cST?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=samanthathavasa_6468316254&amp;utm_content=663589315352&amp;utm_term=%E3%82%B5%E3%83%9E%E3%83%B3%E3%82%B5%20%E3%82%BF%E3%83%90%E3%82%B5%20%E3%83%90%E3%83%83%E3%82%AF_b&amp;gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgSx120jfvHWHxlfVwxsSaDoo24LBxLSOewlJOUibGwi9kCnJoKv2CsaApJqEALw_wcB</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.katespade.jp/shop/handbags</t>
+  </si>
+  <si>
+    <t>https://japan.coach.com/feature/luckywallets.html?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=ao_ro_search_brand_conv_rtn_itemandphrasematch-wallets-women&amp;gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgRFArBrhSBCnWj3dCxV5szaKbdkGmR3UjOmRcDIVsYDNXT7Ndf5VuQaAp5sEALw_wcB</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.bagmania.jp/fs/bagmania/c/jill-stuart</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.wedgwood.jp/?gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgSJlHBdb0P59JcGXbb0inM4taK8CVxBo1Pk5uoSTzde9nWqrpqxamcaArHuEALw_wcB</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.e-narumi.com/shop/r/r8016/?filtercode7=mug&amp;gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgTQ82MwcMY6QwxVtW97MkGsuzyvSGPMKllEG2KPjvkctvcI-3WYhlcaAm1jEALw_wcB</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://hori.jp/products/nsw/nsw-461</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
     <t>https://www.jomalone.jp/colognes</t>
-  </si>
-  <si>
-    <t>https://www.canmake.com/upload/product/image/01-05.jpg</t>
-    <phoneticPr fontId="17"/>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.logicool.co.jp/ja-jp/products/mice/m720r-triathlon.910-005629.html</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="aptos narrow"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="aptos narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="aptos narrow"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とリンクは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="aptos narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="aptos narrow"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で始まるパスを貼り付けること</t>
+    </r>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="16"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,12 +646,6 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
       <color rgb="FF467886"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -612,6 +688,20 @@
       <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="aptos narrow"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -632,7 +722,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -680,10 +770,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,16 +826,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H36" headerRowCount="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:F36" headerRowCount="0">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
   </tableColumns>
   <tableStyleInfo name="テーブル-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -954,52 +1042,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="24" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -1007,21 +1093,19 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1029,21 +1113,19 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1051,21 +1133,19 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1073,21 +1153,19 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1095,21 +1173,19 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1117,21 +1193,19 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1140,18 +1214,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1160,18 +1234,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1180,18 +1254,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1200,18 +1274,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1220,18 +1294,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1240,18 +1314,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1260,18 +1334,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1280,18 +1354,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1302,16 +1376,16 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1322,16 +1396,16 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1342,16 +1416,16 @@
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1362,16 +1436,16 @@
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -1382,16 +1456,16 @@
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -1402,16 +1476,16 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -1422,16 +1496,16 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -1442,16 +1516,16 @@
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -1462,16 +1536,16 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -1482,16 +1556,16 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -1502,16 +1576,16 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -1522,16 +1596,16 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -1542,16 +1616,16 @@
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>
@@ -1562,16 +1636,16 @@
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>109</v>
+        <v>91</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -1582,16 +1656,16 @@
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -1602,16 +1676,16 @@
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
@@ -1622,16 +1696,16 @@
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -1642,16 +1716,16 @@
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -1662,16 +1736,16 @@
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>129</v>
+        <v>111</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -1682,16 +1756,16 @@
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
@@ -2665,7 +2739,7 @@
     <row r="999" ht="18.75" customHeight="1"/>
     <row r="1000" ht="18.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="17"/>
+  <phoneticPr fontId="16"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -2674,7 +2748,7 @@
     <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D5" r:id="rId8" display="https://www.amazon.co.jp/s?k=%E3%83%95%E3%82%A3%E3%83%AB%E3%83%A0%E3%82%AB%E3%83%A1%E3%83%A9&amp;i=electronics&amp;__mk_ja_JP=%E3%82%AB%E3%82%BF%E3%82%AB%E3%83%8A&amp;crid=2XI4RHKIBOSYI&amp;sprefix=%E3%83%95%E3%82%A3%E3%83%AB%E3%83%A0%E3%82%AB%E3%83%A1%E3%83%A9%2Celectronics%2C175&amp;ref=nb_sb_noss_1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
@@ -2682,73 +2756,76 @@
     <hyperlink ref="C8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="C9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D9" r:id="rId16" location="%E3%82%B0%E3%83%AD%E3%82%B9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D9" r:id="rId16" location="%E3%82%B0%E3%83%AD%E3%82%B9" display="https://www.dior.com/ja_jp/beauty/%E3%83%A1%E3%82%A4%E3%82%AF%E3%82%A2%E3%83%83%E3%83%97/%E3%83%AA%E3%83%83%E3%83%97-1?gad_source=1&amp;gclid=Cj0KCQiAoKeuBhCoARIsAB4WxtdipZkOEx9zvZl9-ZCA3_MqQMtAcw3MPuDrVRwz_ulvQoit8tOQJbUaAgwdEALw_wcB#%E3%82%B0%E3%83%AD%E3%82%B9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="D12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="C13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId22" display="https://www.michaelkors.jp/products/online-special/?gclsrc=aw.ds&amp;&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=01.Brand_Single&amp;utm_content=&amp;utm_term=%E3%83%9E%E3%82%A4%E3%82%B1%E3%83%AB%20%E3%82%B3%E3%83%BC%E3%82%B9&amp;gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgQfOTPIPIDmRHQrrzpFDjEOYOt4a9GyQfd9vdtuWUp9lh-EtLliTx8aAjkjEALw_wcB" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="C14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId24" display="https://www.samantha.co.jp/shop/c/cST?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=samanthathavasa_6468316254&amp;utm_content=663589315352&amp;utm_term=%E3%82%B5%E3%83%9E%E3%83%B3%E3%82%B5%20%E3%82%BF%E3%83%90%E3%82%B5%20%E3%83%90%E3%83%83%E3%82%AF_b&amp;gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgSx120jfvHWHxlfVwxsSaDoo24LBxLSOewlJOUibGwi9kCnJoKv2CsaApJqEALw_wcB" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="C15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D36" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D16" r:id="rId27" display="https://japan.coach.com/feature/luckywallets.html?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=ao_ro_search_brand_conv_rtn_itemandphrasematch-wallets-women&amp;gad_source=1&amp;gclid=Cj0KCQiA5rGuBhCnARIsAN11vgRFArBrhSBCnWj3dCxV5szaKbdkGmR3UjOmRcDIVsYDNXT7Ndf5VuQaAp5sEALw_wcB" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C11" r:id="rId68" xr:uid="{1922C74F-B941-C24A-9A26-9BC8142D00E0}"/>
+    <hyperlink ref="D11" r:id="rId69" xr:uid="{39BA5B79-A7F7-F340-AB51-74F5BE5C4802}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId69"/>
+    <tablePart r:id="rId70"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2757,57 +2834,60 @@
     <col min="3" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1"/>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1"/>
     <row r="17" ht="18.75" customHeight="1"/>
     <row r="18" ht="18.75" customHeight="1"/>
     <row r="19" ht="18.75" customHeight="1"/>
@@ -3793,7 +3873,7 @@
     <row r="999" ht="18.75" customHeight="1"/>
     <row r="1000" ht="18.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="17"/>
+  <phoneticPr fontId="16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
